--- a/Input/560103.xlsx
+++ b/Input/560103.xlsx
@@ -12,116 +12,116 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268497X">Data1!$X$1:$X$10,Data1!$X$11:$X$243</definedName>
-    <definedName name="A108268497X_Data">Data1!$X$11:$X$243</definedName>
-    <definedName name="A108268497X_Latest">Data1!$X$243</definedName>
-    <definedName name="A108268498A">Data1!$S$1:$S$10,Data1!$S$11:$S$243</definedName>
-    <definedName name="A108268498A_Data">Data1!$S$11:$S$243</definedName>
-    <definedName name="A108268498A_Latest">Data1!$S$243</definedName>
-    <definedName name="A108268693J">Data1!$V$1:$V$10,Data1!$V$11:$V$243</definedName>
-    <definedName name="A108268693J_Data">Data1!$V$11:$V$243</definedName>
-    <definedName name="A108268693J_Latest">Data1!$V$243</definedName>
-    <definedName name="A108269974W">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$243</definedName>
-    <definedName name="A108269974W_Data">Data1!$AH$11:$AH$243</definedName>
-    <definedName name="A108269974W_Latest">Data1!$AH$243</definedName>
-    <definedName name="A108269975X">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$243</definedName>
-    <definedName name="A108269975X_Data">Data1!$AC$11:$AC$243</definedName>
-    <definedName name="A108269975X_Latest">Data1!$AC$243</definedName>
-    <definedName name="A108279151V">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$243</definedName>
-    <definedName name="A108279151V_Data">Data1!$AI$11:$AI$243</definedName>
-    <definedName name="A108279151V_Latest">Data1!$AI$243</definedName>
-    <definedName name="A108279152W">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$243</definedName>
-    <definedName name="A108279152W_Data">Data1!$AD$11:$AD$243</definedName>
-    <definedName name="A108279152W_Latest">Data1!$AD$243</definedName>
-    <definedName name="A108280460W">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108280460W_Data">Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108280460W_Latest">Data1!$Q$243</definedName>
-    <definedName name="A108280461X">Data1!$I$1:$I$10,Data1!$I$215:$I$243</definedName>
-    <definedName name="A108280461X_Data">Data1!$I$215:$I$243</definedName>
-    <definedName name="A108280461X_Latest">Data1!$I$243</definedName>
-    <definedName name="A108280579F">Data1!$L$1:$L$10,Data1!$L$11:$L$243</definedName>
-    <definedName name="A108280579F_Data">Data1!$L$11:$L$243</definedName>
-    <definedName name="A108280579F_Latest">Data1!$L$243</definedName>
-    <definedName name="A108280580R">Data1!$D$1:$D$10,Data1!$D$11:$D$243</definedName>
-    <definedName name="A108280580R_Data">Data1!$D$11:$D$243</definedName>
-    <definedName name="A108280580R_Latest">Data1!$D$243</definedName>
-    <definedName name="A108282077T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$243</definedName>
-    <definedName name="A108282077T_Data">Data1!$Y$11:$Y$243</definedName>
-    <definedName name="A108282077T_Latest">Data1!$Y$243</definedName>
-    <definedName name="A108282078V">Data1!$T$1:$T$10,Data1!$T$11:$T$243</definedName>
-    <definedName name="A108282078V_Data">Data1!$T$11:$T$243</definedName>
-    <definedName name="A108282078V_Latest">Data1!$T$243</definedName>
-    <definedName name="A108284975F">Data1!$K$1:$K$10,Data1!$K$11:$K$243</definedName>
-    <definedName name="A108284975F_Data">Data1!$K$11:$K$243</definedName>
-    <definedName name="A108284975F_Latest">Data1!$K$243</definedName>
-    <definedName name="A108284976J">Data1!$C$1:$C$10,Data1!$C$11:$C$243</definedName>
-    <definedName name="A108284976J_Data">Data1!$C$11:$C$243</definedName>
-    <definedName name="A108284976J_Latest">Data1!$C$243</definedName>
-    <definedName name="A108288090V">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$243</definedName>
-    <definedName name="A108288090V_Data">Data1!$AG$11:$AG$243</definedName>
-    <definedName name="A108288090V_Latest">Data1!$AG$243</definedName>
-    <definedName name="A108288091W">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$243</definedName>
-    <definedName name="A108288091W_Data">Data1!$AB$11:$AB$243</definedName>
-    <definedName name="A108288091W_Latest">Data1!$AB$243</definedName>
-    <definedName name="A108292430F">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$243</definedName>
-    <definedName name="A108292430F_Data">Data1!$AK$11:$AK$243</definedName>
-    <definedName name="A108292430F_Latest">Data1!$AK$243</definedName>
-    <definedName name="A108292431J">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$243</definedName>
-    <definedName name="A108292431J_Data">Data1!$AE$11:$AE$243</definedName>
-    <definedName name="A108292431J_Latest">Data1!$AE$243</definedName>
-    <definedName name="A108292605W">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$243</definedName>
-    <definedName name="A108292605W_Data">Data1!$AJ$11:$AJ$243</definedName>
-    <definedName name="A108292605W_Latest">Data1!$AJ$243</definedName>
-    <definedName name="A108292822T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$243</definedName>
-    <definedName name="A108292822T_Data">Data1!$AF$11:$AF$243</definedName>
-    <definedName name="A108292822T_Latest">Data1!$AF$243</definedName>
-    <definedName name="A108294068L">Data1!$P$1:$P$10,Data1!$P$11:$P$243</definedName>
-    <definedName name="A108294068L_Data">Data1!$P$11:$P$243</definedName>
-    <definedName name="A108294068L_Latest">Data1!$P$243</definedName>
-    <definedName name="A108294069R">Data1!$H$1:$H$10,Data1!$H$11:$H$243</definedName>
-    <definedName name="A108294069R_Data">Data1!$H$11:$H$243</definedName>
-    <definedName name="A108294069R_Latest">Data1!$H$243</definedName>
-    <definedName name="A108294236L">Data1!$O$1:$O$10,Data1!$O$11:$O$243</definedName>
-    <definedName name="A108294236L_Data">Data1!$O$11:$O$243</definedName>
-    <definedName name="A108294236L_Latest">Data1!$O$243</definedName>
-    <definedName name="A108294237R">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294237R_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294237R_Latest">Data1!$G$243</definedName>
-    <definedName name="A108295608J">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$243</definedName>
-    <definedName name="A108295608J_Data">Data1!$AA$11:$AA$243</definedName>
-    <definedName name="A108295608J_Latest">Data1!$AA$243</definedName>
-    <definedName name="A108295609K">Data1!$U$1:$U$10,Data1!$U$11:$U$243</definedName>
-    <definedName name="A108295609K_Data">Data1!$U$11:$U$243</definedName>
-    <definedName name="A108295609K_Latest">Data1!$U$243</definedName>
-    <definedName name="A108295755J">Data1!$W$1:$W$10,Data1!$W$11:$W$243</definedName>
-    <definedName name="A108295755J_Data">Data1!$W$11:$W$243</definedName>
-    <definedName name="A108295755J_Latest">Data1!$W$243</definedName>
-    <definedName name="A108295756K">Data1!$R$1:$R$10,Data1!$R$11:$R$243</definedName>
-    <definedName name="A108295756K_Data">Data1!$R$11:$R$243</definedName>
-    <definedName name="A108295756K_Latest">Data1!$R$243</definedName>
-    <definedName name="A108298968T">Data1!$N$1:$N$10,Data1!$N$215:$N$243</definedName>
-    <definedName name="A108298968T_Data">Data1!$N$215:$N$243</definedName>
-    <definedName name="A108298968T_Latest">Data1!$N$243</definedName>
-    <definedName name="A108298969V">Data1!$F$1:$F$10,Data1!$F$215:$F$243</definedName>
-    <definedName name="A108298969V_Data">Data1!$F$215:$F$243</definedName>
-    <definedName name="A108298969V_Latest">Data1!$F$243</definedName>
-    <definedName name="A108299017C">Data1!$M$1:$M$10,Data1!$M$11:$M$243</definedName>
-    <definedName name="A108299017C_Data">Data1!$M$11:$M$243</definedName>
-    <definedName name="A108299017C_Latest">Data1!$M$243</definedName>
-    <definedName name="A108299018F">Data1!$E$1:$E$10,Data1!$E$11:$E$243</definedName>
-    <definedName name="A108299018F_Data">Data1!$E$11:$E$243</definedName>
-    <definedName name="A108299018F_Latest">Data1!$E$243</definedName>
-    <definedName name="A108299115J">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108299115J_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108299115J_Latest">Data1!$J$243</definedName>
-    <definedName name="A108299116K">Data1!$B$1:$B$10,Data1!$B$215:$B$243</definedName>
-    <definedName name="A108299116K_Data">Data1!$B$215:$B$243</definedName>
-    <definedName name="A108299116K_Latest">Data1!$B$243</definedName>
-    <definedName name="A108300424V">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$243</definedName>
-    <definedName name="A108300424V_Data">Data1!$Z$11:$Z$243</definedName>
-    <definedName name="A108300424V_Latest">Data1!$Z$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108268497X">Data1!$X$1:$X$10,Data1!$X$11:$X$245</definedName>
+    <definedName name="A108268497X_Data">Data1!$X$11:$X$245</definedName>
+    <definedName name="A108268497X_Latest">Data1!$X$245</definedName>
+    <definedName name="A108268498A">Data1!$S$1:$S$10,Data1!$S$11:$S$245</definedName>
+    <definedName name="A108268498A_Data">Data1!$S$11:$S$245</definedName>
+    <definedName name="A108268498A_Latest">Data1!$S$245</definedName>
+    <definedName name="A108268693J">Data1!$V$1:$V$10,Data1!$V$11:$V$245</definedName>
+    <definedName name="A108268693J_Data">Data1!$V$11:$V$245</definedName>
+    <definedName name="A108268693J_Latest">Data1!$V$245</definedName>
+    <definedName name="A108269974W">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$245</definedName>
+    <definedName name="A108269974W_Data">Data1!$AH$11:$AH$245</definedName>
+    <definedName name="A108269974W_Latest">Data1!$AH$245</definedName>
+    <definedName name="A108269975X">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$245</definedName>
+    <definedName name="A108269975X_Data">Data1!$AC$11:$AC$245</definedName>
+    <definedName name="A108269975X_Latest">Data1!$AC$245</definedName>
+    <definedName name="A108279151V">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$245</definedName>
+    <definedName name="A108279151V_Data">Data1!$AI$11:$AI$245</definedName>
+    <definedName name="A108279151V_Latest">Data1!$AI$245</definedName>
+    <definedName name="A108279152W">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$245</definedName>
+    <definedName name="A108279152W_Data">Data1!$AD$11:$AD$245</definedName>
+    <definedName name="A108279152W_Latest">Data1!$AD$245</definedName>
+    <definedName name="A108280460W">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108280460W_Data">Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108280460W_Latest">Data1!$Q$245</definedName>
+    <definedName name="A108280461X">Data1!$I$1:$I$10,Data1!$I$215:$I$245</definedName>
+    <definedName name="A108280461X_Data">Data1!$I$215:$I$245</definedName>
+    <definedName name="A108280461X_Latest">Data1!$I$245</definedName>
+    <definedName name="A108280579F">Data1!$L$1:$L$10,Data1!$L$11:$L$245</definedName>
+    <definedName name="A108280579F_Data">Data1!$L$11:$L$245</definedName>
+    <definedName name="A108280579F_Latest">Data1!$L$245</definedName>
+    <definedName name="A108280580R">Data1!$D$1:$D$10,Data1!$D$11:$D$245</definedName>
+    <definedName name="A108280580R_Data">Data1!$D$11:$D$245</definedName>
+    <definedName name="A108280580R_Latest">Data1!$D$245</definedName>
+    <definedName name="A108282077T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$245</definedName>
+    <definedName name="A108282077T_Data">Data1!$Y$11:$Y$245</definedName>
+    <definedName name="A108282077T_Latest">Data1!$Y$245</definedName>
+    <definedName name="A108282078V">Data1!$T$1:$T$10,Data1!$T$11:$T$245</definedName>
+    <definedName name="A108282078V_Data">Data1!$T$11:$T$245</definedName>
+    <definedName name="A108282078V_Latest">Data1!$T$245</definedName>
+    <definedName name="A108284975F">Data1!$K$1:$K$10,Data1!$K$11:$K$245</definedName>
+    <definedName name="A108284975F_Data">Data1!$K$11:$K$245</definedName>
+    <definedName name="A108284975F_Latest">Data1!$K$245</definedName>
+    <definedName name="A108284976J">Data1!$C$1:$C$10,Data1!$C$11:$C$245</definedName>
+    <definedName name="A108284976J_Data">Data1!$C$11:$C$245</definedName>
+    <definedName name="A108284976J_Latest">Data1!$C$245</definedName>
+    <definedName name="A108288090V">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$245</definedName>
+    <definedName name="A108288090V_Data">Data1!$AG$11:$AG$245</definedName>
+    <definedName name="A108288090V_Latest">Data1!$AG$245</definedName>
+    <definedName name="A108288091W">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$245</definedName>
+    <definedName name="A108288091W_Data">Data1!$AB$11:$AB$245</definedName>
+    <definedName name="A108288091W_Latest">Data1!$AB$245</definedName>
+    <definedName name="A108292430F">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$245</definedName>
+    <definedName name="A108292430F_Data">Data1!$AK$11:$AK$245</definedName>
+    <definedName name="A108292430F_Latest">Data1!$AK$245</definedName>
+    <definedName name="A108292431J">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$245</definedName>
+    <definedName name="A108292431J_Data">Data1!$AE$11:$AE$245</definedName>
+    <definedName name="A108292431J_Latest">Data1!$AE$245</definedName>
+    <definedName name="A108292605W">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$245</definedName>
+    <definedName name="A108292605W_Data">Data1!$AJ$11:$AJ$245</definedName>
+    <definedName name="A108292605W_Latest">Data1!$AJ$245</definedName>
+    <definedName name="A108292822T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$245</definedName>
+    <definedName name="A108292822T_Data">Data1!$AF$11:$AF$245</definedName>
+    <definedName name="A108292822T_Latest">Data1!$AF$245</definedName>
+    <definedName name="A108294068L">Data1!$P$1:$P$10,Data1!$P$11:$P$245</definedName>
+    <definedName name="A108294068L_Data">Data1!$P$11:$P$245</definedName>
+    <definedName name="A108294068L_Latest">Data1!$P$245</definedName>
+    <definedName name="A108294069R">Data1!$H$1:$H$10,Data1!$H$11:$H$245</definedName>
+    <definedName name="A108294069R_Data">Data1!$H$11:$H$245</definedName>
+    <definedName name="A108294069R_Latest">Data1!$H$245</definedName>
+    <definedName name="A108294236L">Data1!$O$1:$O$10,Data1!$O$11:$O$245</definedName>
+    <definedName name="A108294236L_Data">Data1!$O$11:$O$245</definedName>
+    <definedName name="A108294236L_Latest">Data1!$O$245</definedName>
+    <definedName name="A108294237R">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294237R_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294237R_Latest">Data1!$G$245</definedName>
+    <definedName name="A108295608J">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$245</definedName>
+    <definedName name="A108295608J_Data">Data1!$AA$11:$AA$245</definedName>
+    <definedName name="A108295608J_Latest">Data1!$AA$245</definedName>
+    <definedName name="A108295609K">Data1!$U$1:$U$10,Data1!$U$11:$U$245</definedName>
+    <definedName name="A108295609K_Data">Data1!$U$11:$U$245</definedName>
+    <definedName name="A108295609K_Latest">Data1!$U$245</definedName>
+    <definedName name="A108295755J">Data1!$W$1:$W$10,Data1!$W$11:$W$245</definedName>
+    <definedName name="A108295755J_Data">Data1!$W$11:$W$245</definedName>
+    <definedName name="A108295755J_Latest">Data1!$W$245</definedName>
+    <definedName name="A108295756K">Data1!$R$1:$R$10,Data1!$R$11:$R$245</definedName>
+    <definedName name="A108295756K_Data">Data1!$R$11:$R$245</definedName>
+    <definedName name="A108295756K_Latest">Data1!$R$245</definedName>
+    <definedName name="A108298968T">Data1!$N$1:$N$10,Data1!$N$215:$N$245</definedName>
+    <definedName name="A108298968T_Data">Data1!$N$215:$N$245</definedName>
+    <definedName name="A108298968T_Latest">Data1!$N$245</definedName>
+    <definedName name="A108298969V">Data1!$F$1:$F$10,Data1!$F$215:$F$245</definedName>
+    <definedName name="A108298969V_Data">Data1!$F$215:$F$245</definedName>
+    <definedName name="A108298969V_Latest">Data1!$F$245</definedName>
+    <definedName name="A108299017C">Data1!$M$1:$M$10,Data1!$M$11:$M$245</definedName>
+    <definedName name="A108299017C_Data">Data1!$M$11:$M$245</definedName>
+    <definedName name="A108299017C_Latest">Data1!$M$245</definedName>
+    <definedName name="A108299018F">Data1!$E$1:$E$10,Data1!$E$11:$E$245</definedName>
+    <definedName name="A108299018F_Data">Data1!$E$11:$E$245</definedName>
+    <definedName name="A108299018F_Latest">Data1!$E$245</definedName>
+    <definedName name="A108299115J">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108299115J_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108299115J_Latest">Data1!$J$245</definedName>
+    <definedName name="A108299116K">Data1!$B$1:$B$10,Data1!$B$215:$B$245</definedName>
+    <definedName name="A108299116K_Data">Data1!$B$215:$B$245</definedName>
+    <definedName name="A108299116K_Latest">Data1!$B$245</definedName>
+    <definedName name="A108300424V">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$245</definedName>
+    <definedName name="A108300424V_Data">Data1!$Z$11:$Z$245</definedName>
+    <definedName name="A108300424V_Latest">Data1!$Z$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -30449,6 +30449,266 @@
       </text>
     </comment>
     <comment ref="AK243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -30699,7 +30959,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -31401,10 +31661,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>25</v>
@@ -31433,10 +31693,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
@@ -31465,10 +31725,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
@@ -31497,10 +31757,10 @@
         <v>37438</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>25</v>
@@ -31529,10 +31789,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -31561,10 +31821,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>25</v>
@@ -31593,10 +31853,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>25</v>
@@ -31625,10 +31885,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>25</v>
@@ -31657,10 +31917,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>37</v>
@@ -31689,10 +31949,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>37</v>
@@ -31721,10 +31981,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>37</v>
@@ -31753,10 +32013,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>37</v>
@@ -31785,10 +32045,10 @@
         <v>43647</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>37</v>
@@ -31817,10 +32077,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>37</v>
@@ -31849,10 +32109,10 @@
         <v>37438</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>37</v>
@@ -31881,10 +32141,10 @@
         <v>43647</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>37</v>
@@ -31913,10 +32173,10 @@
         <v>37438</v>
       </c>
       <c r="G28" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H28" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>25</v>
@@ -31945,10 +32205,10 @@
         <v>37438</v>
       </c>
       <c r="G29" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H29" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>25</v>
@@ -31977,10 +32237,10 @@
         <v>37438</v>
       </c>
       <c r="G30" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H30" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>25</v>
@@ -32009,10 +32269,10 @@
         <v>37438</v>
       </c>
       <c r="G31" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H31" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>25</v>
@@ -32041,10 +32301,10 @@
         <v>37438</v>
       </c>
       <c r="G32" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H32" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>37</v>
@@ -32073,10 +32333,10 @@
         <v>37438</v>
       </c>
       <c r="G33" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H33" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>37</v>
@@ -32105,10 +32365,10 @@
         <v>37438</v>
       </c>
       <c r="G34" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H34" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>37</v>
@@ -32137,10 +32397,10 @@
         <v>37438</v>
       </c>
       <c r="G35" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H35" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>37</v>
@@ -32169,10 +32429,10 @@
         <v>37438</v>
       </c>
       <c r="G36" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H36" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>37</v>
@@ -32201,10 +32461,10 @@
         <v>37438</v>
       </c>
       <c r="G37" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H37" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>37</v>
@@ -32233,10 +32493,10 @@
         <v>37438</v>
       </c>
       <c r="G38" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H38" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>25</v>
@@ -32265,10 +32525,10 @@
         <v>37438</v>
       </c>
       <c r="G39" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H39" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>25</v>
@@ -32297,10 +32557,10 @@
         <v>37438</v>
       </c>
       <c r="G40" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H40" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>25</v>
@@ -32329,10 +32589,10 @@
         <v>37438</v>
       </c>
       <c r="G41" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H41" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>25</v>
@@ -32361,10 +32621,10 @@
         <v>37438</v>
       </c>
       <c r="G42" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H42" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>37</v>
@@ -32393,10 +32653,10 @@
         <v>37438</v>
       </c>
       <c r="G43" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H43" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>37</v>
@@ -32425,10 +32685,10 @@
         <v>37438</v>
       </c>
       <c r="G44" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H44" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>37</v>
@@ -32457,10 +32717,10 @@
         <v>37438</v>
       </c>
       <c r="G45" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H45" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>37</v>
@@ -32489,10 +32749,10 @@
         <v>37438</v>
       </c>
       <c r="G46" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H46" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>37</v>
@@ -32521,10 +32781,10 @@
         <v>37438</v>
       </c>
       <c r="G47" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H47" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>37</v>
@@ -32595,7 +32855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK243"/>
+  <dimension ref="A1:AK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -33402,112 +33662,112 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="R8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="S8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="T8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="U8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="V8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="W8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="X8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Y8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Z8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AA8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AB8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AC8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AD8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AE8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AF8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AG8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AH8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AI8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AK8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -33515,112 +33775,112 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="W9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Z9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AB9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AC9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AD9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AE9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AH9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AJ9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AK9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -51732,6 +51992,192 @@
       <c r="AI243" s="9"/>
       <c r="AJ243" s="9"/>
       <c r="AK243" s="9"/>
+    </row>
+    <row r="244" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>45015</v>
+      </c>
+      <c r="C244" s="8">
+        <v>4777</v>
+      </c>
+      <c r="D244" s="8">
+        <v>2885</v>
+      </c>
+      <c r="E244" s="8">
+        <v>31155</v>
+      </c>
+      <c r="F244" s="8">
+        <v>2999</v>
+      </c>
+      <c r="G244" s="8">
+        <v>3199</v>
+      </c>
+      <c r="H244" s="8">
+        <v>21683</v>
+      </c>
+      <c r="I244" s="8">
+        <v>13965</v>
+      </c>
+      <c r="J244" s="9">
+        <v>24914</v>
+      </c>
+      <c r="K244" s="9">
+        <v>2394.3000000000002</v>
+      </c>
+      <c r="L244" s="9">
+        <v>1643</v>
+      </c>
+      <c r="M244" s="9">
+        <v>19331.900000000001</v>
+      </c>
+      <c r="N244" s="9">
+        <v>1012.7</v>
+      </c>
+      <c r="O244" s="9">
+        <v>532.20000000000005</v>
+      </c>
+      <c r="P244" s="9">
+        <v>10887.4</v>
+      </c>
+      <c r="Q244" s="9">
+        <v>6058.1</v>
+      </c>
+      <c r="R244" s="8">
+        <v>4569</v>
+      </c>
+      <c r="S244" s="8">
+        <v>2456</v>
+      </c>
+      <c r="T244" s="8">
+        <v>27745</v>
+      </c>
+      <c r="U244" s="8">
+        <v>20438</v>
+      </c>
+      <c r="V244" s="9">
+        <v>22471.3</v>
+      </c>
+      <c r="W244" s="9">
+        <v>2276.1</v>
+      </c>
+      <c r="X244" s="9">
+        <v>1358.2</v>
+      </c>
+      <c r="Y244" s="9">
+        <v>17387</v>
+      </c>
+      <c r="Z244" s="9">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="AA244" s="9">
+        <v>10180.9</v>
+      </c>
+      <c r="AB244" s="8"/>
+      <c r="AC244" s="8"/>
+      <c r="AD244" s="8"/>
+      <c r="AE244" s="8"/>
+      <c r="AF244" s="9"/>
+      <c r="AG244" s="9"/>
+      <c r="AH244" s="9"/>
+      <c r="AI244" s="9"/>
+      <c r="AJ244" s="9"/>
+      <c r="AK244" s="9"/>
+    </row>
+    <row r="245" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A245" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>33618</v>
+      </c>
+      <c r="C245" s="8">
+        <v>3414</v>
+      </c>
+      <c r="D245" s="8">
+        <v>1821</v>
+      </c>
+      <c r="E245" s="8">
+        <v>24067</v>
+      </c>
+      <c r="F245" s="8">
+        <v>2009</v>
+      </c>
+      <c r="G245" s="8">
+        <v>2307</v>
+      </c>
+      <c r="H245" s="8">
+        <v>15068</v>
+      </c>
+      <c r="I245" s="8">
+        <v>10116</v>
+      </c>
+      <c r="J245" s="9">
+        <v>19169.3</v>
+      </c>
+      <c r="K245" s="9">
+        <v>1734.1</v>
+      </c>
+      <c r="L245" s="9">
+        <v>1098.7</v>
+      </c>
+      <c r="M245" s="9">
+        <v>15297.2</v>
+      </c>
+      <c r="N245" s="9">
+        <v>676.6</v>
+      </c>
+      <c r="O245" s="9">
+        <v>362.6</v>
+      </c>
+      <c r="P245" s="9">
+        <v>7625.4</v>
+      </c>
+      <c r="Q245" s="9">
+        <v>4219.3</v>
+      </c>
+      <c r="R245" s="8">
+        <v>4351</v>
+      </c>
+      <c r="S245" s="8">
+        <v>2260</v>
+      </c>
+      <c r="T245" s="8">
+        <v>28241</v>
+      </c>
+      <c r="U245" s="8">
+        <v>18205</v>
+      </c>
+      <c r="V245" s="9">
+        <v>22686</v>
+      </c>
+      <c r="W245" s="9">
+        <v>2193.8000000000002</v>
+      </c>
+      <c r="X245" s="9">
+        <v>1362.8</v>
+      </c>
+      <c r="Y245" s="9">
+        <v>17786</v>
+      </c>
+      <c r="Z245" s="9">
+        <v>477.6</v>
+      </c>
+      <c r="AA245" s="9">
+        <v>9177.7999999999993</v>
+      </c>
+      <c r="AB245" s="8"/>
+      <c r="AC245" s="8"/>
+      <c r="AD245" s="8"/>
+      <c r="AE245" s="8"/>
+      <c r="AF245" s="9"/>
+      <c r="AG245" s="9"/>
+      <c r="AH245" s="9"/>
+      <c r="AI245" s="9"/>
+      <c r="AJ245" s="9"/>
+      <c r="AK245" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
